--- a/public/excel/custom.xlsx
+++ b/public/excel/custom.xlsx
@@ -72,16 +72,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,18 +91,41 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -404,15 +427,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:U7"/>
+      <selection activeCell="A1" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,190 +445,66 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/excel/custom.xlsx
+++ b/public/excel/custom.xlsx
@@ -434,6 +434,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
